--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>351228.3565213912</v>
+        <v>344018.8889694429</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>17287498.18481128</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129928</v>
+        <v>2706694.536732692</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6812565.981814272</v>
+        <v>7175593.63476668</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188.1201984965725</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -671,10 +673,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>85.54275136626532</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8834167598887</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>93.91434128146551</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.292862546669911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>134.9254647561321</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.84518929254141</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>45.6418898059425</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>61.06386613909876</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>136.950576281575</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>120.2750515390017</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>156.4015896731724</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>43.7728376562208</v>
       </c>
       <c r="E13" t="n">
-        <v>7.264602967362454</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1610,19 +1612,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>231.9183836112914</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>35.16791248334739</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>126.8355823247567</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1847,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1856,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>45.91568880648644</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>94.21878984361651</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2251,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>43.4889870101585</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>122.9742767430576</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2573,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>54.82067209135266</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>141.3509401177971</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3044,7 +3046,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3193,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362117</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>153.2006427344284</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3281,7 +3283,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3433,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>111.5098183264943</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3800,7 +3802,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3977,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>71.5451075087895</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3992,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>79.58540461744407</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2480.040423909638</v>
+        <v>1437.776784721425</v>
       </c>
       <c r="C2" t="n">
-        <v>2041.897951093061</v>
+        <v>1437.776784721425</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.988166267505</v>
+        <v>1001.86699989587</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>568.092255054165</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>140.2248254633727</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148856</v>
@@ -4367,13 +4369,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2670.060826431428</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X2" t="n">
-        <v>2670.060826431428</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y2" t="n">
-        <v>2670.060826431428</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M3" t="n">
-        <v>1693.724792654855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N3" t="n">
-        <v>1693.724792654855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O3" t="n">
-        <v>1693.724792654855</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P3" t="n">
-        <v>2354.564847196634</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>794.0196728252577</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C4" t="n">
-        <v>794.0196728252577</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>917.1784309449763</v>
+        <v>1419.763337936864</v>
       </c>
       <c r="C5" t="n">
-        <v>917.1784309449763</v>
+        <v>1419.763337936864</v>
       </c>
       <c r="D5" t="n">
-        <v>481.2686461194209</v>
+        <v>983.8535531113089</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194209</v>
+        <v>550.078808269604</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862857</v>
+        <v>550.078808269604</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>148.6809768928679</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362199</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739147</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.647018150181</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>920.5045547294914</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>917.1784309449763</v>
+        <v>1846.062908421772</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>714.241271070407</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1977.98450317831</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1705.958098764602</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1460.566344098014</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>454.7990479053647</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="C8" t="n">
-        <v>454.7990479053647</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="D8" t="n">
-        <v>454.7990479053647</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="E8" t="n">
-        <v>454.7990479053647</v>
+        <v>790.4489108309099</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739146</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.64701815018</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294905</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>512.2184310291439</v>
+        <v>1224.223655672615</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4895,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>277.7880908295411</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462408</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294657</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>590.3333424294657</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>420.5753386802029</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
         <v>358.8946658124264</v>
@@ -5005,7 +5007,7 @@
         <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652279</v>
+        <v>1043.799427915185</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>917.1784309449763</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="C11" t="n">
-        <v>917.1784309449763</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="D11" t="n">
-        <v>481.2686461194208</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E11" t="n">
-        <v>481.2686461194208</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F11" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G11" t="n">
         <v>53.40121652862856</v>
@@ -5069,22 +5071,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U11" t="n">
-        <v>2512.079422721153</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V11" t="n">
-        <v>2149.462472654979</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W11" t="n">
-        <v>1744.607018066012</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X11" t="n">
-        <v>1325.464554645323</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y11" t="n">
-        <v>917.1784309449763</v>
+        <v>1004.156428545654</v>
       </c>
     </row>
     <row r="12">
@@ -5130,7 +5132,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N12" t="n">
-        <v>397.8892067392439</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O12" t="n">
         <v>1058.729261281022</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.4772326516127</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C13" t="n">
-        <v>568.9155211348376</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D13" t="n">
-        <v>403.0375283363603</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E13" t="n">
-        <v>395.6995455410447</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F13" t="n">
-        <v>218.9924915028009</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H13" t="n">
         <v>53.40121652862856</v>
@@ -5221,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U13" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W13" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X13" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y13" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1182.071675278725</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C14" t="n">
-        <v>743.9292024621484</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D14" t="n">
-        <v>743.9292024621484</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E14" t="n">
-        <v>743.9292024621484</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F14" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G14" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H14" t="n">
         <v>53.40121652862856</v>
@@ -5288,10 +5290,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N14" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P14" t="n">
         <v>1954.407975719776</v>
@@ -5315,13 +5317,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W14" t="n">
-        <v>2435.799832884669</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X14" t="n">
-        <v>2016.65736946398</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y14" t="n">
-        <v>1608.371245763633</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="15">
@@ -5370,7 +5372,7 @@
         <v>938.6281453713194</v>
       </c>
       <c r="O15" t="n">
-        <v>938.6281453713194</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P15" t="n">
         <v>1599.468199913098</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>922.1364226482442</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C16" t="n">
-        <v>922.1364226482442</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D16" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E16" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F16" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G16" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
         <v>53.40121652862856</v>
@@ -5461,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T16" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U16" t="n">
-        <v>2145.748379262989</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V16" t="n">
-        <v>1858.792871133419</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W16" t="n">
-        <v>1586.766466719711</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X16" t="n">
-        <v>1341.374712053123</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.955041367231</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1789.095648603258</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1350.953175786681</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>915.0433909611256</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>481.2686461194208</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>714.2412710704069</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8819313892766</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>1462.721985931055</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>1462.721985931055</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>2123.562040472833</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>2670.060826431428</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>2623.681342788512</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2215.395219088166</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>397.8892067392439</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>397.8892067392439</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1058.729261281022</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>903.8972536055599</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C19" t="n">
-        <v>731.3355420887848</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D19" t="n">
-        <v>565.4575492903075</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6995455410447</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862856</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862856</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2651.821657388744</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T19" t="n">
-        <v>2405.942210967199</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.509210220304</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.553702090735</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W19" t="n">
-        <v>1568.527297677026</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X19" t="n">
-        <v>1323.135543010439</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y19" t="n">
-        <v>1095.715872324547</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,34 +5755,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>211.240503094076</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1286.300469346935</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557486</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5837,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>405.0384966383147</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
-        <v>405.0384966383147</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="23">
@@ -5996,19 +5998,19 @@
         <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>2291.478512820576</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>3417.209496257023</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6075,10 +6077,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O24" t="n">
         <v>1765.500601749588</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2594.704009018975</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,49 +6229,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>757.7392890526716</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>1832.799255305531</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2989.847090516082</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="27">
@@ -6315,16 +6317,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D28" t="n">
-        <v>639.1929661716164</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,43 +6472,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6555,13 +6557,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>475.2748675296863</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6785,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2559.679081471576</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766299</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2738.306477413004</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7025,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O36" t="n">
-        <v>945.7774352703902</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>303.5569696238763</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7162,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1612.575493976557</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3749.802995757414</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4578.11287059081</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7397,64 +7399,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L41" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7500,7 +7502,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N42" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O42" t="n">
         <v>287.8657185439749</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1824.618792525831</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1752.351007163417</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1316.441222337862</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>882.6664774961569</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>454.7990479053647</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862856</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862856</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L44" t="n">
-        <v>53.40121652862856</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>53.40121652862856</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>714.2412710704069</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>1293.567921177998</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2670.060826431428</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2250.918363010739</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2250.918363010739</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O45" t="n">
-        <v>714.2412710704069</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P45" t="n">
-        <v>1058.729261281022</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.4772326516127</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>568.9155211348376</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>568.9155211348376</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>399.1575173855749</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>222.4504633473311</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>222.4504633473311</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539532</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434797</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013252</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136788</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1406.107276723079</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1160.715522056492</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>933.2958513705998</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8064,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.3264657984387</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O5" t="n">
+        <v>667.5152066078568</v>
+      </c>
+      <c r="P5" t="n">
         <v>585.1784344521125</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.5152066078571</v>
-      </c>
-      <c r="P5" t="n">
-        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8304,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>226.6534083847602</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8778,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O12" t="n">
         <v>347.9676668794094</v>
-      </c>
-      <c r="O12" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8936,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9018,10 +9020,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9167,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>667.515206607857</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
-        <v>88.52591951400984</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>667.515206607857</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,19 +9251,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>667.515206607857</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>110.0804674982791</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9413,7 +9415,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9483,13 +9485,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1125.411824542361</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9653,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>662.0994432140324</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9887,13 +9889,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1015.482873487266</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>376.7818457160674</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>51.29797569827247</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>839.1644551322515</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10671,19 +10673,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,7 +10843,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>369.4697759546616</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10899,16 +10901,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11148,10 +11150,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>187.4796750234296</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,16 +11305,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>667.515206607857</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>585.1784344521124</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>667.515206607857</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P45" t="n">
-        <v>347.9676668794094</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.9163762834862</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>311.8411016967034</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.01701577190849</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22790,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>192.3245117297504</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400.9103999166732</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22996,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>90.22000922290067</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>365.1913854875173</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23027,19 +23029,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>377.9468654889419</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>113.8761173587626</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>88.19489769745778</v>
       </c>
     </row>
     <row r="11">
@@ -23261,7 +23263,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>311.2756354382982</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23309,10 +23311,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>100.2284899829809</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="E13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23498,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23555,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>168.8885164317856</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>369.0353499799957</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>37.38363054573585</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.0353499799959</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>63.4301651713668</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>34.67467827192567</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>135.0797604404446</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>26.709483593973</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>52.42554389793629</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>362.2159405796214</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>58.91774794908515</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465012.9391296197</v>
+        <v>465012.9391296196</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465012.9391296196</v>
+        <v>465012.9391296195</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465012.9391296196</v>
+        <v>724429.1781888594</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724429.1781888594</v>
+        <v>724429.1781888593</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>724429.1781888593</v>
+        <v>724429.1781888594</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>724429.1781888593</v>
+        <v>724429.1781888594</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>724429.1781888593</v>
+        <v>724429.1781888594</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>724429.1781888594</v>
+        <v>724429.1781888593</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>724429.1781888594</v>
+        <v>724429.1781888593</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465012.9391296196</v>
+        <v>724429.1781888594</v>
       </c>
     </row>
   </sheetData>
@@ -26326,7 +26328,7 @@
         <v>126821.7106717144</v>
       </c>
       <c r="G2" t="n">
-        <v>126821.7106717144</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="H2" t="n">
         <v>197571.5940515071</v>
@@ -26353,7 +26355,7 @@
         <v>197571.5940515071</v>
       </c>
       <c r="P2" t="n">
-        <v>126821.7106717144</v>
+        <v>197571.5940515071</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>167396.1246670935</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>146976.466414655</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,22 +26423,22 @@
         <v>517.5868204130782</v>
       </c>
       <c r="D4" t="n">
+        <v>517.586820413078</v>
+      </c>
+      <c r="E4" t="n">
         <v>517.5868204130782</v>
-      </c>
-      <c r="E4" t="n">
-        <v>517.586820413078</v>
       </c>
       <c r="F4" t="n">
         <v>517.5868204130782</v>
       </c>
       <c r="G4" t="n">
-        <v>517.586820413078</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26448,7 +26450,7 @@
         <v>806.3323907826024</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.332390782602</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
@@ -26457,7 +26459,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>517.586820413078</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26472,7 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26482,7 +26484,7 @@
         <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26511,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,28 +26524,28 @@
         <v>-171608.0992945012</v>
       </c>
       <c r="C6" t="n">
-        <v>52091.59928954364</v>
+        <v>52091.59928954366</v>
       </c>
       <c r="D6" t="n">
-        <v>52091.59928954362</v>
+        <v>52091.59928954361</v>
       </c>
       <c r="E6" t="n">
-        <v>85719.19928954361</v>
+        <v>85719.19928954363</v>
       </c>
       <c r="F6" t="n">
-        <v>85719.19928954364</v>
+        <v>85719.19928954367</v>
       </c>
       <c r="G6" t="n">
-        <v>85719.19928954364</v>
+        <v>-48349.10161216147</v>
       </c>
       <c r="H6" t="n">
-        <v>-45737.55472314352</v>
+        <v>119047.023054932</v>
       </c>
       <c r="I6" t="n">
         <v>119047.023054932</v>
       </c>
       <c r="J6" t="n">
-        <v>-55604.32566277421</v>
+        <v>-55604.32566277415</v>
       </c>
       <c r="K6" t="n">
         <v>119047.023054932</v>
@@ -26558,10 +26560,10 @@
         <v>119047.023054932</v>
       </c>
       <c r="O6" t="n">
+        <v>-27929.44335972299</v>
+      </c>
+      <c r="P6" t="n">
         <v>119047.023054932</v>
-      </c>
-      <c r="P6" t="n">
-        <v>85719.19928954367</v>
       </c>
     </row>
   </sheetData>
@@ -26790,7 +26792,7 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26802,7 +26804,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34784,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.3264657984387</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O5" t="n">
+        <v>667.5152066078568</v>
+      </c>
+      <c r="P5" t="n">
         <v>585.1784344521125</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.5152066078571</v>
-      </c>
-      <c r="P5" t="n">
-        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35024,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>226.6534083847602</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35498,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O12" t="n">
         <v>347.9676668794094</v>
-      </c>
-      <c r="O12" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35656,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35738,10 +35740,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>667.515206607857</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
-        <v>88.52591951400984</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>667.515206607857</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>667.515206607857</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>110.0804674982791</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36133,7 +36135,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1125.411824542361</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36373,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>662.0994432140324</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36607,13 +36609,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1015.482873487266</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>376.7818457160674</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>51.29797569827247</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>839.1644551322515</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37549,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081364</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37561,7 +37563,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>369.4697759546616</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37868,10 +37870,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>187.4796750234296</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>667.515206607857</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>585.1784344521124</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>667.515206607857</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P45" t="n">
-        <v>347.9676668794094</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344018.8889694429</v>
+        <v>341353.9215012854</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17287498.18481128</v>
+        <v>17287498.18481127</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2706694.536732692</v>
+        <v>2706694.536732691</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7175593.63476668</v>
+        <v>7175593.634766679</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>287.0808823984592</v>
       </c>
       <c r="G2" t="n">
-        <v>85.54275136626532</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>120.1472970361157</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170477</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -898,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -907,13 +907,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>93.91434128146551</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>34.75529100421647</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>134.9254647561321</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>45.6418898059425</v>
+        <v>157.9537701879984</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.950576281575</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>120.2750515390017</v>
+        <v>153.5042307374888</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>43.7728376562208</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>198.3130587661469</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>35.16791248334739</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1849,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>94.21878984361651</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.4889870101585</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2575,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.82067209135266</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -3195,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>7.264602967362117</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="35">
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3796,13 +3796,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>129.7139627068451</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1437.776784721425</v>
+        <v>1178.554482038443</v>
       </c>
       <c r="C2" t="n">
-        <v>1437.776784721425</v>
+        <v>1178.554482038443</v>
       </c>
       <c r="D2" t="n">
-        <v>1001.86699989587</v>
+        <v>1178.554482038443</v>
       </c>
       <c r="E2" t="n">
-        <v>568.092255054165</v>
+        <v>744.7797371967376</v>
       </c>
       <c r="F2" t="n">
-        <v>140.2248254633727</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862857</v>
@@ -4342,10 +4342,10 @@
         <v>53.40121652862857</v>
       </c>
       <c r="N2" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719777</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>2005.983069159479</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>1586.840605738789</v>
       </c>
       <c r="Y2" t="n">
-        <v>1437.776784721425</v>
+        <v>1178.554482038443</v>
       </c>
     </row>
     <row r="3">
@@ -4406,22 +4406,22 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="O3" t="n">
         <v>397.8892067392438</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348376</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D4" t="n">
-        <v>447.554615037751</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E4" t="n">
-        <v>447.554615037751</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862855</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1419.763337936864</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C5" t="n">
-        <v>1419.763337936864</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D5" t="n">
-        <v>983.8535531113089</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>550.078808269604</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>550.078808269604</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G5" t="n">
-        <v>148.6809768928679</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O5" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.954471881715</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.954471881715</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.954471881715</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.954471881715</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>2634.954471881715</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="Y5" t="n">
-        <v>1846.062908421772</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="N6" t="n">
-        <v>397.8892067392439</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>2264.94001130788</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1977.98450317831</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1705.958098764602</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1460.566344098014</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1224.223655672615</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="C8" t="n">
-        <v>1224.223655672615</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="D8" t="n">
-        <v>1224.223655672615</v>
+        <v>212.9504793447886</v>
       </c>
       <c r="E8" t="n">
-        <v>790.4489108309099</v>
+        <v>212.9504793447886</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.221573682271</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W8" t="n">
-        <v>1643.366119093304</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1224.223655672615</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1224.223655672615</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1043.799427915185</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1004.156428545654</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="C11" t="n">
-        <v>1004.156428545654</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="D11" t="n">
-        <v>882.6664774961569</v>
+        <v>776.3061159271172</v>
       </c>
       <c r="E11" t="n">
-        <v>882.6664774961569</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F11" t="n">
-        <v>454.7990479053647</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H11" t="n">
         <v>53.40121652862856</v>
@@ -5050,13 +5050,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M11" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N11" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P11" t="n">
         <v>1954.407975719776</v>
@@ -5068,25 +5068,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U11" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V11" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W11" t="n">
-        <v>1423.298891966343</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X11" t="n">
-        <v>1004.156428545654</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y11" t="n">
-        <v>1004.156428545654</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K12" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L12" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M12" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N12" t="n">
-        <v>714.2412710704069</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="O12" t="n">
-        <v>1058.729261281022</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C13" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D13" t="n">
-        <v>705.359723599933</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E13" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F13" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G13" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H13" t="n">
         <v>53.40121652862856</v>
@@ -5226,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T13" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U13" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V13" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W13" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X13" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1789.095648603258</v>
+        <v>1642.316018334486</v>
       </c>
       <c r="C14" t="n">
-        <v>1350.953175786681</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="D14" t="n">
-        <v>915.0433909611256</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E14" t="n">
-        <v>481.2686461194208</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H14" t="n">
         <v>53.40121652862856</v>
@@ -5290,10 +5290,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N14" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O14" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
         <v>1954.407975719776</v>
@@ -5323,7 +5323,7 @@
         <v>2250.918363010739</v>
       </c>
       <c r="Y14" t="n">
-        <v>2215.395219088166</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K15" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L15" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M15" t="n">
-        <v>277.7880908295411</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N15" t="n">
-        <v>938.6281453713194</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O15" t="n">
-        <v>1599.468199913098</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P15" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
         <v>1599.468199913098</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
         <v>53.40121652862856</v>
@@ -5463,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,46 +5521,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>875.8255515988633</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>703.2638400820882</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>537.3858472836109</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>367.6278435343481</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2623.749955382047</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2377.870508960502</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2099.437508213608</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1812.482000084038</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1540.45559567033</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1295.063841003742</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1067.64417031785</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,31 +5758,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>927.0677766831641</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2674.992180466348</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2429.112734044803</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2150.679733297909</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1863.724225168339</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1591.697820754631</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1346.306066088043</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1118.886395402151</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5995,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6229,49 +6229,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>757.7392890526716</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1832.799255305531</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2989.847090516082</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4115.578073952529</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.781058858859</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>754.2193473420839</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6463,16 +6463,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6700,16 +6700,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
         <v>444.5591692831957</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6937,19 +6937,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1612.575493976557</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2738.306477413004</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993933</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7180,7 +7180,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
         <v>1463.16863798718</v>
@@ -7250,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7411,10 +7411,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
         <v>306.1208027766299</v>
@@ -7444,10 +7444,10 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257732</v>
@@ -7487,25 +7487,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7648,10 +7648,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
         <v>306.120802776629</v>
@@ -7724,31 +7724,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O45" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P45" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>233.2850450251686</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
   </sheetData>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>585.1784344521125</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.5152066078571</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>667.5152066078572</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>321.6407242930885</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>667.5152066078571</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>321.6407242930885</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930885</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8698,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N11" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O11" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>321.6407242930886</v>
+      </c>
+      <c r="P12" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O12" t="n">
-        <v>347.9676668794094</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8938,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O14" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O14" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="P14" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O15" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9655,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>662.0994432140324</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9889,13 +9889,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>839.1644551322515</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,10 +10828,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>288.735183296506</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>852.0369646460714</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22552,22 +22552,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>136.5078728964251</v>
       </c>
       <c r="G2" t="n">
-        <v>311.8411016967034</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,7 +22603,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.07191583437682</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22795,13 +22795,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>192.3245117297504</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>48.06006407378489</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -22846,7 +22846,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22959,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,13 +22992,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.22000922290067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>377.9468654889419</v>
+        <v>265.6349851068859</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,7 +23077,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>88.19489769745778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>311.2756354382982</v>
+        <v>278.0464562398111</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>223.7235160139118</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>369.0353499799957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>63.4301651713668</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>114.1599680048248</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>135.0797604404446</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>8.789189859684171</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465012.9391296196</v>
+        <v>465012.9391296197</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465012.9391296195</v>
+        <v>465012.9391296196</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724429.1781888593</v>
+        <v>724429.1781888594</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>724429.1781888593</v>
+        <v>724429.1781888594</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>724429.1781888593</v>
+        <v>724429.1781888594</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>724429.1781888594</v>
+        <v>724429.1781888593</v>
       </c>
     </row>
   </sheetData>
@@ -26423,40 +26423,40 @@
         <v>517.5868204130782</v>
       </c>
       <c r="D4" t="n">
+        <v>517.5868204130782</v>
+      </c>
+      <c r="E4" t="n">
         <v>517.586820413078</v>
       </c>
-      <c r="E4" t="n">
-        <v>517.5868204130782</v>
-      </c>
       <c r="F4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.332390782602</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="P4" t="n">
         <v>806.3323907826023</v>
@@ -26472,10 +26472,10 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
         <v>40584.9245617577</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-171608.0992945012</v>
+        <v>-172102.9895230825</v>
       </c>
       <c r="C6" t="n">
-        <v>52091.59928954366</v>
+        <v>51596.70906096238</v>
       </c>
       <c r="D6" t="n">
-        <v>52091.59928954361</v>
+        <v>51596.70906096238</v>
       </c>
       <c r="E6" t="n">
-        <v>85719.19928954363</v>
+        <v>85224.30906096238</v>
       </c>
       <c r="F6" t="n">
-        <v>85719.19928954367</v>
+        <v>85224.30906096239</v>
       </c>
       <c r="G6" t="n">
-        <v>-48349.10161216147</v>
+        <v>-48372.32595154414</v>
       </c>
       <c r="H6" t="n">
-        <v>119047.023054932</v>
+        <v>119023.7987155493</v>
       </c>
       <c r="I6" t="n">
-        <v>119047.023054932</v>
+        <v>119023.7987155493</v>
       </c>
       <c r="J6" t="n">
-        <v>-55604.32566277415</v>
+        <v>-55627.55000215682</v>
       </c>
       <c r="K6" t="n">
-        <v>119047.023054932</v>
+        <v>119023.7987155493</v>
       </c>
       <c r="L6" t="n">
-        <v>119047.023054932</v>
+        <v>119023.7987155493</v>
       </c>
       <c r="M6" t="n">
-        <v>119047.023054932</v>
+        <v>119023.7987155493</v>
       </c>
       <c r="N6" t="n">
-        <v>119047.023054932</v>
+        <v>119023.7987155493</v>
       </c>
       <c r="O6" t="n">
-        <v>-27929.44335972299</v>
+        <v>-27952.66769910564</v>
       </c>
       <c r="P6" t="n">
-        <v>119047.023054932</v>
+        <v>119023.7987155493</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
         <v>667.515206607857</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>585.1784344521125</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.5152066078571</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>667.5152066078572</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>321.6407242930885</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>667.5152066078571</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>321.6407242930885</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930885</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35418,16 +35418,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N11" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O11" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>321.6407242930886</v>
+      </c>
+      <c r="P12" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O12" t="n">
-        <v>347.9676668794094</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35658,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O14" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O14" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="P14" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O15" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35889,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36375,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>662.0994432140324</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36609,13 +36609,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>839.1644551322515</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>288.735183296506</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>852.0369646460714</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
